--- a/03_Outputs/all/idx10_juventud_loadings_y_tops.xlsx
+++ b/03_Outputs/all/idx10_juventud_loadings_y_tops.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,6 +376,16 @@
           <t>loading</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo_pct</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -391,6 +401,12 @@
       <c r="C2">
         <v>0.2712007229927318</v>
       </c>
+      <c r="D2">
+        <v>0.07825884393017746</v>
+      </c>
+      <c r="E2">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -406,6 +422,12 @@
       <c r="C3">
         <v>0.2249418064870334</v>
       </c>
+      <c r="D3">
+        <v>0.06491017255773578</v>
+      </c>
+      <c r="E3">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -421,6 +443,12 @@
       <c r="C4">
         <v>0.1617420986656249</v>
       </c>
+      <c r="D4">
+        <v>0.04667299377646471</v>
+      </c>
+      <c r="E4">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -436,6 +464,12 @@
       <c r="C5">
         <v>0.3743125129230052</v>
       </c>
+      <c r="D5">
+        <v>0.1080132243258771</v>
+      </c>
+      <c r="E5">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -451,6 +485,12 @@
       <c r="C6">
         <v>-0.08207408057440028</v>
       </c>
+      <c r="D6">
+        <v>0.02368364874365375</v>
+      </c>
+      <c r="E6">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -466,6 +506,12 @@
       <c r="C7">
         <v>-0.2576948856596329</v>
       </c>
+      <c r="D7">
+        <v>0.0743615415766521</v>
+      </c>
+      <c r="E7">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -481,6 +527,12 @@
       <c r="C8">
         <v>0.2138531357298877</v>
       </c>
+      <c r="D8">
+        <v>0.06171037815969562</v>
+      </c>
+      <c r="E8">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -496,6 +548,12 @@
       <c r="C9">
         <v>0.4237853885720587</v>
       </c>
+      <c r="D9">
+        <v>0.1222893295348596</v>
+      </c>
+      <c r="E9">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -511,6 +569,12 @@
       <c r="C10">
         <v>0.1211994735214482</v>
       </c>
+      <c r="D10">
+        <v>0.03497383995908037</v>
+      </c>
+      <c r="E10">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -526,6 +590,12 @@
       <c r="C11">
         <v>0.0215137947915192</v>
       </c>
+      <c r="D11">
+        <v>0.006208112907503155</v>
+      </c>
+      <c r="E11">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -541,6 +611,12 @@
       <c r="C12">
         <v>0.3808184873839954</v>
       </c>
+      <c r="D12">
+        <v>0.1098906162234275</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -556,6 +632,12 @@
       <c r="C13">
         <v>0.3644431050531651</v>
       </c>
+      <c r="D13">
+        <v>0.1051652656565716</v>
+      </c>
+      <c r="E13">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -571,6 +653,12 @@
       <c r="C14">
         <v>-0.1094920921222502</v>
       </c>
+      <c r="D14">
+        <v>0.0315955077642379</v>
+      </c>
+      <c r="E14">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -586,6 +674,12 @@
       <c r="C15">
         <v>-0.2059259809896121</v>
       </c>
+      <c r="D15">
+        <v>0.0594228843846653</v>
+      </c>
+      <c r="E15">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -601,6 +695,12 @@
       <c r="C16">
         <v>0.2524347022872594</v>
       </c>
+      <c r="D16">
+        <v>0.07284364049939825</v>
+      </c>
+      <c r="E16">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -616,6 +716,12 @@
       <c r="C17">
         <v>-0.125758907103257</v>
       </c>
+      <c r="D17">
+        <v>0.03734198595067751</v>
+      </c>
+      <c r="E17">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -631,6 +737,12 @@
       <c r="C18">
         <v>-0.1857989225773428</v>
       </c>
+      <c r="D18">
+        <v>0.05516985568932686</v>
+      </c>
+      <c r="E18">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -646,6 +758,12 @@
       <c r="C19">
         <v>-0.3669049124055784</v>
       </c>
+      <c r="D19">
+        <v>0.1089462241671217</v>
+      </c>
+      <c r="E19">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -661,6 +779,12 @@
       <c r="C20">
         <v>-0.08708539431014206</v>
       </c>
+      <c r="D20">
+        <v>0.0258585387368901</v>
+      </c>
+      <c r="E20">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -676,6 +800,12 @@
       <c r="C21">
         <v>0.1836474191598072</v>
       </c>
+      <c r="D21">
+        <v>0.0545310030446829</v>
+      </c>
+      <c r="E21">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -691,6 +821,12 @@
       <c r="C22">
         <v>0.1189016510691225</v>
       </c>
+      <c r="D22">
+        <v>0.03530583945111702</v>
+      </c>
+      <c r="E22">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -706,6 +842,12 @@
       <c r="C23">
         <v>0.1348707277602553</v>
       </c>
+      <c r="D23">
+        <v>0.04004758738119368</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -721,6 +863,12 @@
       <c r="C24">
         <v>-0.07191924382346693</v>
       </c>
+      <c r="D24">
+        <v>0.02135520619811189</v>
+      </c>
+      <c r="E24">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -736,6 +884,12 @@
       <c r="C25">
         <v>0.3507674807260469</v>
       </c>
+      <c r="D25">
+        <v>0.1041544860633363</v>
+      </c>
+      <c r="E25">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -751,6 +905,12 @@
       <c r="C26">
         <v>0.3448627952073592</v>
       </c>
+      <c r="D26">
+        <v>0.1024011893087695</v>
+      </c>
+      <c r="E26">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -766,6 +926,12 @@
       <c r="C27">
         <v>0.3751684435263227</v>
       </c>
+      <c r="D27">
+        <v>0.1113999403302278</v>
+      </c>
+      <c r="E27">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -781,6 +947,12 @@
       <c r="C28">
         <v>0.3387829657059367</v>
       </c>
+      <c r="D28">
+        <v>0.1005958865031541</v>
+      </c>
+      <c r="E28">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -796,6 +968,12 @@
       <c r="C29">
         <v>0.3993720371066146</v>
       </c>
+      <c r="D29">
+        <v>0.1185867891368024</v>
+      </c>
+      <c r="E29">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -811,6 +989,12 @@
       <c r="C30">
         <v>0.2814898647775272</v>
       </c>
+      <c r="D30">
+        <v>0.08358366669924963</v>
+      </c>
+      <c r="E30">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -826,6 +1010,12 @@
       <c r="C31">
         <v>0.00243085484796707</v>
       </c>
+      <c r="D31">
+        <v>0.0007218013393388634</v>
+      </c>
+      <c r="E31">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -841,6 +1031,12 @@
       <c r="C32">
         <v>-0.2189928267205932</v>
       </c>
+      <c r="D32">
+        <v>0.06973796097349097</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -856,6 +1052,12 @@
       <c r="C33">
         <v>-0.5527298287920497</v>
       </c>
+      <c r="D33">
+        <v>0.1760160449381495</v>
+      </c>
+      <c r="E33">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -871,6 +1073,12 @@
       <c r="C34">
         <v>-0.4733893420131929</v>
       </c>
+      <c r="D34">
+        <v>0.1507501773138133</v>
+      </c>
+      <c r="E34">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -886,6 +1094,12 @@
       <c r="C35">
         <v>-0.005384075614518639</v>
       </c>
+      <c r="D35">
+        <v>0.001714551388309548</v>
+      </c>
+      <c r="E35">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -901,6 +1115,12 @@
       <c r="C36">
         <v>-0.3069744236316579</v>
       </c>
+      <c r="D36">
+        <v>0.09775557809661967</v>
+      </c>
+      <c r="E36">
+        <v>9.800000000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -916,6 +1136,12 @@
       <c r="C37">
         <v>-0.3203646338054219</v>
       </c>
+      <c r="D37">
+        <v>0.1020196718959851</v>
+      </c>
+      <c r="E37">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -931,6 +1157,12 @@
       <c r="C38">
         <v>-0.1015973206559943</v>
       </c>
+      <c r="D38">
+        <v>0.03235352540546352</v>
+      </c>
+      <c r="E38">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -946,6 +1178,12 @@
       <c r="C39">
         <v>0.0733375521999068</v>
       </c>
+      <c r="D39">
+        <v>0.02335424145985289</v>
+      </c>
+      <c r="E39">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -961,6 +1199,12 @@
       <c r="C40">
         <v>-0.1333658917337772</v>
       </c>
+      <c r="D40">
+        <v>0.0424701826639803</v>
+      </c>
+      <c r="E40">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -976,6 +1220,12 @@
       <c r="C41">
         <v>-0.1631730660260625</v>
       </c>
+      <c r="D41">
+        <v>0.05196223584514489</v>
+      </c>
+      <c r="E41">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -991,6 +1241,12 @@
       <c r="C42">
         <v>0.1481204442229907</v>
       </c>
+      <c r="D42">
+        <v>0.04716874937542289</v>
+      </c>
+      <c r="E42">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1006,6 +1262,12 @@
       <c r="C43">
         <v>0.0947951432693307</v>
       </c>
+      <c r="D43">
+        <v>0.03018738148089038</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1021,6 +1283,12 @@
       <c r="C44">
         <v>-0.2549674960315588</v>
       </c>
+      <c r="D44">
+        <v>0.08119404436220977</v>
+      </c>
+      <c r="E44">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1036,6 +1304,12 @@
       <c r="C45">
         <v>-0.2617510048706752</v>
       </c>
+      <c r="D45">
+        <v>0.08335424331379097</v>
+      </c>
+      <c r="E45">
+        <v>8.300000000000001</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1051,6 +1325,12 @@
       <c r="C46">
         <v>-0.03128106456205734</v>
       </c>
+      <c r="D46">
+        <v>0.009961411486876199</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1066,6 +1346,12 @@
       <c r="C47">
         <v>-0.05759194220651227</v>
       </c>
+      <c r="D47">
+        <v>0.01841291918806592</v>
+      </c>
+      <c r="E47">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1081,6 +1367,12 @@
       <c r="C48">
         <v>0.1295141329010223</v>
       </c>
+      <c r="D48">
+        <v>0.04140741172207415</v>
+      </c>
+      <c r="E48">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1096,6 +1388,12 @@
       <c r="C49">
         <v>0.1065037599658452</v>
       </c>
+      <c r="D49">
+        <v>0.03405068574427295</v>
+      </c>
+      <c r="E49">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1111,6 +1409,12 @@
       <c r="C50">
         <v>0.08913442279818</v>
       </c>
+      <c r="D50">
+        <v>0.02849747483723871</v>
+      </c>
+      <c r="E50">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1126,6 +1430,12 @@
       <c r="C51">
         <v>-0.6052050908118893</v>
       </c>
+      <c r="D51">
+        <v>0.1934922144033084</v>
+      </c>
+      <c r="E51">
+        <v>19.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1141,6 +1451,12 @@
       <c r="C52">
         <v>-0.4812683688549375</v>
       </c>
+      <c r="D52">
+        <v>0.1538679760394717</v>
+      </c>
+      <c r="E52">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1156,6 +1472,12 @@
       <c r="C53">
         <v>-0.1922088169243073</v>
       </c>
+      <c r="D53">
+        <v>0.06145174615869854</v>
+      </c>
+      <c r="E53">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1171,6 +1493,12 @@
       <c r="C54">
         <v>-0.04930731278464788</v>
       </c>
+      <c r="D54">
+        <v>0.01576421163969272</v>
+      </c>
+      <c r="E54">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1186,6 +1514,12 @@
       <c r="C55">
         <v>0.2617235164050479</v>
       </c>
+      <c r="D55">
+        <v>0.0836765313436099</v>
+      </c>
+      <c r="E55">
+        <v>8.4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1201,6 +1535,12 @@
       <c r="C56">
         <v>0.2452531878651866</v>
       </c>
+      <c r="D56">
+        <v>0.07841074559674426</v>
+      </c>
+      <c r="E56">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1216,6 +1556,12 @@
       <c r="C57">
         <v>-0.1348348663745791</v>
       </c>
+      <c r="D57">
+        <v>0.04310852183776601</v>
+      </c>
+      <c r="E57">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1231,6 +1577,12 @@
       <c r="C58">
         <v>-0.1641748497751877</v>
       </c>
+      <c r="D58">
+        <v>0.05248890948639639</v>
+      </c>
+      <c r="E58">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1246,6 +1598,12 @@
       <c r="C59">
         <v>0.2881482146509177</v>
       </c>
+      <c r="D59">
+        <v>0.09212486308462922</v>
+      </c>
+      <c r="E59">
+        <v>9.199999999999999</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1261,6 +1619,12 @@
       <c r="C60">
         <v>0.246316626181815</v>
       </c>
+      <c r="D60">
+        <v>0.07875074114187379</v>
+      </c>
+      <c r="E60">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1276,6 +1640,12 @@
       <c r="C61">
         <v>-0.07661562848679386</v>
       </c>
+      <c r="D61">
+        <v>0.02449504777615745</v>
+      </c>
+      <c r="E61">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1291,6 +1661,12 @@
       <c r="C62">
         <v>-0.317206843758731</v>
       </c>
+      <c r="D62">
+        <v>0.1090686634792173</v>
+      </c>
+      <c r="E62">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1306,6 +1682,12 @@
       <c r="C63">
         <v>0.1766159483185853</v>
       </c>
+      <c r="D63">
+        <v>0.06072777372632713</v>
+      </c>
+      <c r="E63">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1321,6 +1703,12 @@
       <c r="C64">
         <v>0.0274283108394015</v>
       </c>
+      <c r="D64">
+        <v>0.009430973081468104</v>
+      </c>
+      <c r="E64">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1336,6 +1724,12 @@
       <c r="C65">
         <v>-0.08049211568276442</v>
       </c>
+      <c r="D65">
+        <v>0.02767647562109705</v>
+      </c>
+      <c r="E65">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1351,6 +1745,12 @@
       <c r="C66">
         <v>0.154603912805357</v>
       </c>
+      <c r="D66">
+        <v>0.05315913723211906</v>
+      </c>
+      <c r="E66">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1366,6 +1766,12 @@
       <c r="C67">
         <v>-0.03559205581821819</v>
       </c>
+      <c r="D67">
+        <v>0.0122380019061739</v>
+      </c>
+      <c r="E67">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1381,6 +1787,12 @@
       <c r="C68">
         <v>-0.541270426413628</v>
       </c>
+      <c r="D68">
+        <v>0.1861108710336125</v>
+      </c>
+      <c r="E68">
+        <v>18.6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1396,6 +1808,12 @@
       <c r="C69">
         <v>-0.201272252015996</v>
       </c>
+      <c r="D69">
+        <v>0.06920561757972048</v>
+      </c>
+      <c r="E69">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1411,6 +1829,12 @@
       <c r="C70">
         <v>0.1903920836742997</v>
       </c>
+      <c r="D70">
+        <v>0.06546457149951579</v>
+      </c>
+      <c r="E70">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1426,6 +1850,12 @@
       <c r="C71">
         <v>0.1235649302547284</v>
       </c>
+      <c r="D71">
+        <v>0.04248666780353783</v>
+      </c>
+      <c r="E71">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1441,6 +1871,12 @@
       <c r="C72">
         <v>-0.0001035600493835422</v>
       </c>
+      <c r="D72">
+        <v>3.560817302131047E-05</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1456,6 +1892,12 @@
       <c r="C73">
         <v>0.09654211630656402</v>
       </c>
+      <c r="D73">
+        <v>0.03319512110848731</v>
+      </c>
+      <c r="E73">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1471,6 +1913,12 @@
       <c r="C74">
         <v>-0.1139934396511091</v>
       </c>
+      <c r="D74">
+        <v>0.0391955985590335</v>
+      </c>
+      <c r="E74">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1486,6 +1934,12 @@
       <c r="C75">
         <v>-0.2404191376156686</v>
       </c>
+      <c r="D75">
+        <v>0.08266591509769479</v>
+      </c>
+      <c r="E75">
+        <v>8.300000000000001</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1501,6 +1955,12 @@
       <c r="C76">
         <v>0.6088253275285128</v>
       </c>
+      <c r="D76">
+        <v>0.2093390040989741</v>
+      </c>
+      <c r="E76">
+        <v>20.9</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1516,6 +1976,12 @@
       <c r="C77">
         <v>0.1399720540810881</v>
       </c>
+      <c r="D77">
+        <v>0.03896097563211789</v>
+      </c>
+      <c r="E77">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1531,6 +1997,12 @@
       <c r="C78">
         <v>-0.1400801167750504</v>
       </c>
+      <c r="D78">
+        <v>0.03899105469335511</v>
+      </c>
+      <c r="E78">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1546,6 +2018,12 @@
       <c r="C79">
         <v>-0.1888039027713269</v>
       </c>
+      <c r="D79">
+        <v>0.05255323502547858</v>
+      </c>
+      <c r="E79">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1561,6 +2039,12 @@
       <c r="C80">
         <v>0.3610844632616805</v>
       </c>
+      <c r="D80">
+        <v>0.1005072267220195</v>
+      </c>
+      <c r="E80">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1576,6 +2060,12 @@
       <c r="C81">
         <v>0.1606542169815124</v>
       </c>
+      <c r="D81">
+        <v>0.04471781938262905</v>
+      </c>
+      <c r="E81">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1591,6 +2081,12 @@
       <c r="C82">
         <v>0.1848449492799091</v>
       </c>
+      <c r="D82">
+        <v>0.05145126726826856</v>
+      </c>
+      <c r="E82">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1606,6 +2102,12 @@
       <c r="C83">
         <v>-0.1749484176433353</v>
       </c>
+      <c r="D83">
+        <v>0.04869658505354829</v>
+      </c>
+      <c r="E83">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1621,6 +2123,12 @@
       <c r="C84">
         <v>0.2653677423945087</v>
       </c>
+      <c r="D84">
+        <v>0.07386464543124474</v>
+      </c>
+      <c r="E84">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1636,6 +2144,12 @@
       <c r="C85">
         <v>0.3388380426664129</v>
       </c>
+      <c r="D85">
+        <v>0.09431497458709015</v>
+      </c>
+      <c r="E85">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1651,6 +2165,12 @@
       <c r="C86">
         <v>0.4830663439339593</v>
       </c>
+      <c r="D86">
+        <v>0.134460669154745</v>
+      </c>
+      <c r="E86">
+        <v>13.4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1666,6 +2186,12 @@
       <c r="C87">
         <v>-0.1952784834387278</v>
       </c>
+      <c r="D87">
+        <v>0.05435542319272983</v>
+      </c>
+      <c r="E87">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1681,6 +2207,12 @@
       <c r="C88">
         <v>-0.319230526129258</v>
       </c>
+      <c r="D88">
+        <v>0.08885725676601791</v>
+      </c>
+      <c r="E88">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1696,6 +2228,12 @@
       <c r="C89">
         <v>-0.2865767662093724</v>
       </c>
+      <c r="D89">
+        <v>0.07976813999276064</v>
+      </c>
+      <c r="E89">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1711,6 +2249,12 @@
       <c r="C90">
         <v>-0.1568677262240137</v>
       </c>
+      <c r="D90">
+        <v>0.04366385632476977</v>
+      </c>
+      <c r="E90">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1726,6 +2270,12 @@
       <c r="C91">
         <v>-0.1970081425573955</v>
       </c>
+      <c r="D91">
+        <v>0.054836870773225</v>
+      </c>
+      <c r="E91">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1741,6 +2291,12 @@
       <c r="C92">
         <v>-0.4340785117313904</v>
       </c>
+      <c r="D92">
+        <v>0.1465880593278505</v>
+      </c>
+      <c r="E92">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1756,6 +2312,12 @@
       <c r="C93">
         <v>0.06486319489175744</v>
       </c>
+      <c r="D93">
+        <v>0.02190426294787558</v>
+      </c>
+      <c r="E93">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1771,6 +2333,12 @@
       <c r="C94">
         <v>0.2147615821605472</v>
       </c>
+      <c r="D94">
+        <v>0.072524860586912</v>
+      </c>
+      <c r="E94">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1786,6 +2354,12 @@
       <c r="C95">
         <v>-0.2932032299875555</v>
       </c>
+      <c r="D95">
+        <v>0.09901455914300006</v>
+      </c>
+      <c r="E95">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1801,6 +2375,12 @@
       <c r="C96">
         <v>-0.05753486753910591</v>
       </c>
+      <c r="D96">
+        <v>0.01942949109045376</v>
+      </c>
+      <c r="E96">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1816,6 +2396,12 @@
       <c r="C97">
         <v>-0.04362389825498536</v>
       </c>
+      <c r="D97">
+        <v>0.0147317649058634</v>
+      </c>
+      <c r="E97">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1831,6 +2417,12 @@
       <c r="C98">
         <v>0.5310280865536064</v>
       </c>
+      <c r="D98">
+        <v>0.1793278739967764</v>
+      </c>
+      <c r="E98">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1846,6 +2438,12 @@
       <c r="C99">
         <v>-0.03824045730997567</v>
       </c>
+      <c r="D99">
+        <v>0.01291378004988096</v>
+      </c>
+      <c r="E99">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1861,6 +2459,12 @@
       <c r="C100">
         <v>0.355088550281947</v>
       </c>
+      <c r="D100">
+        <v>0.1199131955824165</v>
+      </c>
+      <c r="E100">
+        <v>12</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1876,6 +2480,12 @@
       <c r="C101">
         <v>0.1116042397026804</v>
       </c>
+      <c r="D101">
+        <v>0.03768868642108623</v>
+      </c>
+      <c r="E101">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1891,6 +2501,12 @@
       <c r="C102">
         <v>-0.03550333173984669</v>
       </c>
+      <c r="D102">
+        <v>0.01198945434699953</v>
+      </c>
+      <c r="E102">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1906,6 +2522,12 @@
       <c r="C103">
         <v>-0.09987980413559221</v>
       </c>
+      <c r="D103">
+        <v>0.03372935139287039</v>
+      </c>
+      <c r="E103">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1921,6 +2543,12 @@
       <c r="C104">
         <v>-0.08572017977104299</v>
       </c>
+      <c r="D104">
+        <v>0.02894765453316722</v>
+      </c>
+      <c r="E104">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1936,6 +2564,12 @@
       <c r="C105">
         <v>-0.4590168154347687</v>
       </c>
+      <c r="D105">
+        <v>0.1550097098910761</v>
+      </c>
+      <c r="E105">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1951,6 +2585,12 @@
       <c r="C106">
         <v>-0.1370665561575702</v>
       </c>
+      <c r="D106">
+        <v>0.04628729578377117</v>
+      </c>
+      <c r="E106">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1966,6 +2606,12 @@
       <c r="C107">
         <v>0.5542612424736619</v>
       </c>
+      <c r="D107">
+        <v>0.1721034330896661</v>
+      </c>
+      <c r="E107">
+        <v>17.2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1981,6 +2627,12 @@
       <c r="C108">
         <v>-0.1822491598001024</v>
       </c>
+      <c r="D108">
+        <v>0.05659011252405091</v>
+      </c>
+      <c r="E108">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1996,6 +2648,12 @@
       <c r="C109">
         <v>-0.1604483867721479</v>
       </c>
+      <c r="D109">
+        <v>0.04982076335329798</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2011,6 +2669,12 @@
       <c r="C110">
         <v>-0.3121412399830953</v>
       </c>
+      <c r="D110">
+        <v>0.09692284953968942</v>
+      </c>
+      <c r="E110">
+        <v>9.699999999999999</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2026,6 +2690,12 @@
       <c r="C111">
         <v>-0.150588961266721</v>
       </c>
+      <c r="D111">
+        <v>0.04675931714752902</v>
+      </c>
+      <c r="E111">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2041,6 +2711,12 @@
       <c r="C112">
         <v>-0.01638299010016799</v>
       </c>
+      <c r="D112">
+        <v>0.005087075596210225</v>
+      </c>
+      <c r="E112">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2056,6 +2732,12 @@
       <c r="C113">
         <v>0.2766747066762194</v>
       </c>
+      <c r="D113">
+        <v>0.08591015069994981</v>
+      </c>
+      <c r="E113">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2071,6 +2753,12 @@
       <c r="C114">
         <v>-0.1387668404493122</v>
       </c>
+      <c r="D114">
+        <v>0.04308843521828508</v>
+      </c>
+      <c r="E114">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2086,6 +2774,12 @@
       <c r="C115">
         <v>-0.05799553654072465</v>
       </c>
+      <c r="D115">
+        <v>0.0180081704756944</v>
+      </c>
+      <c r="E115">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2101,6 +2795,12 @@
       <c r="C116">
         <v>0.2417315878218322</v>
       </c>
+      <c r="D116">
+        <v>0.07505997706908107</v>
+      </c>
+      <c r="E116">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2116,6 +2816,12 @@
       <c r="C117">
         <v>-0.1398672719293214</v>
       </c>
+      <c r="D117">
+        <v>0.0434301297498101</v>
+      </c>
+      <c r="E117">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2131,6 +2837,12 @@
       <c r="C118">
         <v>-0.2152639628176682</v>
       </c>
+      <c r="D118">
+        <v>0.06684152558830127</v>
+      </c>
+      <c r="E118">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2146,6 +2858,12 @@
       <c r="C119">
         <v>0.1033745556780585</v>
       </c>
+      <c r="D119">
+        <v>0.03209879126115901</v>
+      </c>
+      <c r="E119">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2161,6 +2879,12 @@
       <c r="C120">
         <v>-0.1706036612500151</v>
       </c>
+      <c r="D120">
+        <v>0.05297407350323483</v>
+      </c>
+      <c r="E120">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2176,6 +2900,12 @@
       <c r="C121">
         <v>0.5001623087929541</v>
       </c>
+      <c r="D121">
+        <v>0.1553051951840409</v>
+      </c>
+      <c r="E121">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2191,6 +2921,12 @@
       <c r="C122">
         <v>-0.273418454854979</v>
       </c>
+      <c r="D122">
+        <v>0.09587963331808592</v>
+      </c>
+      <c r="E122">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2206,6 +2942,12 @@
       <c r="C123">
         <v>0.1565173793304103</v>
       </c>
+      <c r="D123">
+        <v>0.05488594010988436</v>
+      </c>
+      <c r="E123">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2221,6 +2963,12 @@
       <c r="C124">
         <v>-0.01431199190277377</v>
       </c>
+      <c r="D124">
+        <v>0.005018785350159312</v>
+      </c>
+      <c r="E124">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2236,6 +2984,12 @@
       <c r="C125">
         <v>-0.1279134835360574</v>
       </c>
+      <c r="D125">
+        <v>0.04485541367125778</v>
+      </c>
+      <c r="E125">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2251,6 +3005,12 @@
       <c r="C126">
         <v>0.03471417005641034</v>
       </c>
+      <c r="D126">
+        <v>0.01217321595104351</v>
+      </c>
+      <c r="E126">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2266,6 +3026,12 @@
       <c r="C127">
         <v>-0.1411864741859836</v>
       </c>
+      <c r="D127">
+        <v>0.04950985251381614</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2281,6 +3047,12 @@
       <c r="C128">
         <v>0.1438257049422017</v>
       </c>
+      <c r="D128">
+        <v>0.05043535140628199</v>
+      </c>
+      <c r="E128">
+        <v>5</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2296,6 +3068,12 @@
       <c r="C129">
         <v>0.1652173836343733</v>
       </c>
+      <c r="D129">
+        <v>0.05793677010222037</v>
+      </c>
+      <c r="E129">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2311,6 +3089,12 @@
       <c r="C130">
         <v>-0.5699281876307144</v>
       </c>
+      <c r="D130">
+        <v>0.1998566836926117</v>
+      </c>
+      <c r="E130">
+        <v>20</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2326,6 +3110,12 @@
       <c r="C131">
         <v>0.5930268920196343</v>
       </c>
+      <c r="D131">
+        <v>0.2079567049882012</v>
+      </c>
+      <c r="E131">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2341,6 +3131,12 @@
       <c r="C132">
         <v>-0.006899245306438027</v>
       </c>
+      <c r="D132">
+        <v>0.002419357941670986</v>
+      </c>
+      <c r="E132">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2356,6 +3152,12 @@
       <c r="C133">
         <v>0.05524721648535449</v>
       </c>
+      <c r="D133">
+        <v>0.01937353812225392</v>
+      </c>
+      <c r="E133">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2371,6 +3173,12 @@
       <c r="C134">
         <v>-0.2706569797085595</v>
       </c>
+      <c r="D134">
+        <v>0.09491126699257163</v>
+      </c>
+      <c r="E134">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2386,6 +3194,12 @@
       <c r="C135">
         <v>0.2431003842166931</v>
       </c>
+      <c r="D135">
+        <v>0.08524799728878978</v>
+      </c>
+      <c r="E135">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2401,6 +3215,12 @@
       <c r="C136">
         <v>0.05572045473503758</v>
       </c>
+      <c r="D136">
+        <v>0.01953948855115155</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2416,6 +3236,12 @@
       <c r="C137">
         <v>-0.3909829782682223</v>
       </c>
+      <c r="D137">
+        <v>0.1164603984031259</v>
+      </c>
+      <c r="E137">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2431,6 +3257,12 @@
       <c r="C138">
         <v>-0.2012373376518576</v>
       </c>
+      <c r="D138">
+        <v>0.05994169009690752</v>
+      </c>
+      <c r="E138">
+        <v>6</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2446,6 +3278,12 @@
       <c r="C139">
         <v>0.0184412007795142</v>
       </c>
+      <c r="D139">
+        <v>0.005493000230667113</v>
+      </c>
+      <c r="E139">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2461,6 +3299,12 @@
       <c r="C140">
         <v>0.4178465063931895</v>
       </c>
+      <c r="D140">
+        <v>0.1244621206310461</v>
+      </c>
+      <c r="E140">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2476,6 +3320,12 @@
       <c r="C141">
         <v>-0.1691041282209559</v>
       </c>
+      <c r="D141">
+        <v>0.05037031082901869</v>
+      </c>
+      <c r="E141">
+        <v>5</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2491,6 +3341,12 @@
       <c r="C142">
         <v>0.3017246593508386</v>
       </c>
+      <c r="D142">
+        <v>0.08987341134820467</v>
+      </c>
+      <c r="E142">
+        <v>9</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2506,6 +3362,12 @@
       <c r="C143">
         <v>0.2890595380647567</v>
       </c>
+      <c r="D143">
+        <v>0.0861009067820618</v>
+      </c>
+      <c r="E143">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2521,6 +3383,12 @@
       <c r="C144">
         <v>0.1891422694961332</v>
       </c>
+      <c r="D144">
+        <v>0.05633898477616001</v>
+      </c>
+      <c r="E144">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2536,6 +3404,12 @@
       <c r="C145">
         <v>-0.01204105975413532</v>
       </c>
+      <c r="D145">
+        <v>0.003586618073179733</v>
+      </c>
+      <c r="E145">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2551,6 +3425,12 @@
       <c r="C146">
         <v>-0.1585566416920573</v>
       </c>
+      <c r="D146">
+        <v>0.04722857691326634</v>
+      </c>
+      <c r="E146">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2566,6 +3446,12 @@
       <c r="C147">
         <v>-0.1692419811350259</v>
       </c>
+      <c r="D147">
+        <v>0.0504113724766759</v>
+      </c>
+      <c r="E147">
+        <v>5</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2581,6 +3467,12 @@
       <c r="C148">
         <v>-0.2030892074104034</v>
       </c>
+      <c r="D148">
+        <v>0.06049329848361071</v>
+      </c>
+      <c r="E148">
+        <v>6</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2596,6 +3488,12 @@
       <c r="C149">
         <v>0.1232014245189233</v>
       </c>
+      <c r="D149">
+        <v>0.03669747221952813</v>
+      </c>
+      <c r="E149">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2611,6 +3509,12 @@
       <c r="C150">
         <v>0.2388601334698114</v>
       </c>
+      <c r="D150">
+        <v>0.07114822857437678</v>
+      </c>
+      <c r="E150">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2626,6 +3530,12 @@
       <c r="C151">
         <v>0.4746892125333616</v>
       </c>
+      <c r="D151">
+        <v>0.1413936101621705</v>
+      </c>
+      <c r="E151">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2641,6 +3551,12 @@
       <c r="C152">
         <v>-0.00756777743430159</v>
       </c>
+      <c r="D152">
+        <v>0.002795258371981623</v>
+      </c>
+      <c r="E152">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2656,6 +3572,12 @@
       <c r="C153">
         <v>0.03110846988237564</v>
       </c>
+      <c r="D153">
+        <v>0.0114903234976378</v>
+      </c>
+      <c r="E153">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2671,6 +3593,12 @@
       <c r="C154">
         <v>-0.0004764978866314873</v>
       </c>
+      <c r="D154">
+        <v>0.0001760007767671798</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2686,6 +3614,12 @@
       <c r="C155">
         <v>0.5387739286810685</v>
       </c>
+      <c r="D155">
+        <v>0.1990032539705857</v>
+      </c>
+      <c r="E155">
+        <v>19.9</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2701,6 +3635,12 @@
       <c r="C156">
         <v>-0.1019877790631369</v>
       </c>
+      <c r="D156">
+        <v>0.03767053084488008</v>
+      </c>
+      <c r="E156">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2716,6 +3656,12 @@
       <c r="C157">
         <v>0.0914838404599559</v>
       </c>
+      <c r="D157">
+        <v>0.03379076263364274</v>
+      </c>
+      <c r="E157">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2731,6 +3677,12 @@
       <c r="C158">
         <v>0.1151262157782507</v>
       </c>
+      <c r="D158">
+        <v>0.04252338566804281</v>
+      </c>
+      <c r="E158">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2746,6 +3698,12 @@
       <c r="C159">
         <v>-0.6536173544840714</v>
       </c>
+      <c r="D159">
+        <v>0.241422187432854</v>
+      </c>
+      <c r="E159">
+        <v>24.1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2761,6 +3719,12 @@
       <c r="C160">
         <v>-0.2592982865931086</v>
       </c>
+      <c r="D160">
+        <v>0.09577524084609493</v>
+      </c>
+      <c r="E160">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2776,6 +3740,12 @@
       <c r="C161">
         <v>0.2112139343768864</v>
       </c>
+      <c r="D161">
+        <v>0.07801465139158853</v>
+      </c>
+      <c r="E161">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2791,6 +3761,12 @@
       <c r="C162">
         <v>0.04160127235937911</v>
       </c>
+      <c r="D162">
+        <v>0.01536597843384831</v>
+      </c>
+      <c r="E162">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2806,6 +3782,12 @@
       <c r="C163">
         <v>0.1304067748618746</v>
       </c>
+      <c r="D163">
+        <v>0.04816746163061789</v>
+      </c>
+      <c r="E163">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2821,6 +3803,12 @@
       <c r="C164">
         <v>0.1065420968755285</v>
       </c>
+      <c r="D164">
+        <v>0.03935272817484524</v>
+      </c>
+      <c r="E164">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2836,6 +3824,12 @@
       <c r="C165">
         <v>-0.3093139559313508</v>
       </c>
+      <c r="D165">
+        <v>0.1142491877428813</v>
+      </c>
+      <c r="E165">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2851,6 +3845,12 @@
       <c r="C166">
         <v>-0.1088442223844978</v>
       </c>
+      <c r="D166">
+        <v>0.04020304858373195</v>
+      </c>
+      <c r="E166">
+        <v>4</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2866,6 +3866,12 @@
       <c r="C167">
         <v>-0.1047721095274316</v>
       </c>
+      <c r="D167">
+        <v>0.040649233374041</v>
+      </c>
+      <c r="E167">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2881,6 +3887,12 @@
       <c r="C168">
         <v>0.006489106914814738</v>
       </c>
+      <c r="D168">
+        <v>0.002517628236743146</v>
+      </c>
+      <c r="E168">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2896,6 +3908,12 @@
       <c r="C169">
         <v>-0.02226291601897309</v>
       </c>
+      <c r="D169">
+        <v>0.008637513102711481</v>
+      </c>
+      <c r="E169">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2911,6 +3929,12 @@
       <c r="C170">
         <v>-0.01829136072946369</v>
       </c>
+      <c r="D170">
+        <v>0.007096638546025135</v>
+      </c>
+      <c r="E170">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2926,6 +3950,12 @@
       <c r="C171">
         <v>0.1038154675420067</v>
       </c>
+      <c r="D171">
+        <v>0.04027807769629106</v>
+      </c>
+      <c r="E171">
+        <v>4</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -2941,6 +3971,12 @@
       <c r="C172">
         <v>0.007117106250944688</v>
       </c>
+      <c r="D172">
+        <v>0.002761277922601628</v>
+      </c>
+      <c r="E172">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2956,6 +3992,12 @@
       <c r="C173">
         <v>-0.1754890043008954</v>
       </c>
+      <c r="D173">
+        <v>0.068085805684169</v>
+      </c>
+      <c r="E173">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -2971,6 +4013,12 @@
       <c r="C174">
         <v>0.4093682639383199</v>
       </c>
+      <c r="D174">
+        <v>0.158825723485103</v>
+      </c>
+      <c r="E174">
+        <v>15.9</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -2986,6 +4034,12 @@
       <c r="C175">
         <v>-0.3034483528315911</v>
       </c>
+      <c r="D175">
+        <v>0.1177311687896303</v>
+      </c>
+      <c r="E175">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3001,6 +4055,12 @@
       <c r="C176">
         <v>0.08128957488283384</v>
       </c>
+      <c r="D176">
+        <v>0.03153853554340949</v>
+      </c>
+      <c r="E176">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3016,6 +4076,12 @@
       <c r="C177">
         <v>-0.1063575348787156</v>
       </c>
+      <c r="D177">
+        <v>0.04126434292363532</v>
+      </c>
+      <c r="E177">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3031,6 +4097,12 @@
       <c r="C178">
         <v>-0.03729990557443686</v>
       </c>
+      <c r="D178">
+        <v>0.01447152847607787</v>
+      </c>
+      <c r="E178">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3046,6 +4118,12 @@
       <c r="C179">
         <v>0.6761998088088912</v>
       </c>
+      <c r="D179">
+        <v>0.262350390382832</v>
+      </c>
+      <c r="E179">
+        <v>26.2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3061,6 +4139,12 @@
       <c r="C180">
         <v>-0.4528337965901746</v>
       </c>
+      <c r="D180">
+        <v>0.1756893772614894</v>
+      </c>
+      <c r="E180">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3076,6 +4160,12 @@
       <c r="C181">
         <v>-0.0724339687387153</v>
       </c>
+      <c r="D181">
+        <v>0.02810275857524014</v>
+      </c>
+      <c r="E181">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3091,6 +4181,12 @@
       <c r="C182">
         <v>-0.03995045324255321</v>
       </c>
+      <c r="D182">
+        <v>0.01421572851366353</v>
+      </c>
+      <c r="E182">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3106,6 +4202,12 @@
       <c r="C183">
         <v>0.02326692807223905</v>
       </c>
+      <c r="D183">
+        <v>0.008279163463146447</v>
+      </c>
+      <c r="E183">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3121,6 +4223,12 @@
       <c r="C184">
         <v>-0.1816924447946569</v>
       </c>
+      <c r="D184">
+        <v>0.06465234455546739</v>
+      </c>
+      <c r="E184">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3136,6 +4244,12 @@
       <c r="C185">
         <v>0.2057543514632626</v>
       </c>
+      <c r="D185">
+        <v>0.07321438841127192</v>
+      </c>
+      <c r="E185">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3151,6 +4265,12 @@
       <c r="C186">
         <v>0.5807914982066521</v>
       </c>
+      <c r="D186">
+        <v>0.2066653464836136</v>
+      </c>
+      <c r="E186">
+        <v>20.7</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3166,6 +4286,12 @@
       <c r="C187">
         <v>-0.6389439055973458</v>
       </c>
+      <c r="D187">
+        <v>0.2273579486641948</v>
+      </c>
+      <c r="E187">
+        <v>22.7</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3181,6 +4307,12 @@
       <c r="C188">
         <v>0.2126561950550117</v>
       </c>
+      <c r="D188">
+        <v>0.07567029883983165</v>
+      </c>
+      <c r="E188">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3196,6 +4328,12 @@
       <c r="C189">
         <v>-0.1170437231360736</v>
       </c>
+      <c r="D189">
+        <v>0.04164813305693761</v>
+      </c>
+      <c r="E189">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3211,6 +4349,12 @@
       <c r="C190">
         <v>0.03636964567874568</v>
       </c>
+      <c r="D190">
+        <v>0.01294155553050096</v>
+      </c>
+      <c r="E190">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3226,6 +4370,12 @@
       <c r="C191">
         <v>-0.138980048771808</v>
       </c>
+      <c r="D191">
+        <v>0.04945382296817899</v>
+      </c>
+      <c r="E191">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3241,6 +4391,12 @@
       <c r="C192">
         <v>-0.2064680735448507</v>
       </c>
+      <c r="D192">
+        <v>0.07346835497541733</v>
+      </c>
+      <c r="E192">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3256,6 +4412,12 @@
       <c r="C193">
         <v>-0.1877288797375753</v>
       </c>
+      <c r="D193">
+        <v>0.06680031318595889</v>
+      </c>
+      <c r="E193">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3271,6 +4433,12 @@
       <c r="C194">
         <v>0.08939450966957371</v>
       </c>
+      <c r="D194">
+        <v>0.03180960356968186</v>
+      </c>
+      <c r="E194">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3286,6 +4454,12 @@
       <c r="C195">
         <v>0.08215854748335895</v>
       </c>
+      <c r="D195">
+        <v>0.02923480239408973</v>
+      </c>
+      <c r="E195">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3301,6 +4475,12 @@
       <c r="C196">
         <v>0.06910019062510335</v>
       </c>
+      <c r="D196">
+        <v>0.02458819538804531</v>
+      </c>
+      <c r="E196">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3316,6 +4496,12 @@
       <c r="C197">
         <v>0.04580792552473167</v>
       </c>
+      <c r="D197">
+        <v>0.01954476727247517</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -3331,6 +4517,12 @@
       <c r="C198">
         <v>-0.6563097301636489</v>
       </c>
+      <c r="D198">
+        <v>0.2800262353680255</v>
+      </c>
+      <c r="E198">
+        <v>28</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -3346,6 +4538,12 @@
       <c r="C199">
         <v>0.6524955431710672</v>
       </c>
+      <c r="D199">
+        <v>0.2783988445562878</v>
+      </c>
+      <c r="E199">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -3361,6 +4559,12 @@
       <c r="C200">
         <v>0.006647092851467299</v>
       </c>
+      <c r="D200">
+        <v>0.002836100550991338</v>
+      </c>
+      <c r="E200">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -3376,6 +4580,12 @@
       <c r="C201">
         <v>0.1690394194498345</v>
       </c>
+      <c r="D201">
+        <v>0.07212367893057256</v>
+      </c>
+      <c r="E201">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -3391,6 +4601,12 @@
       <c r="C202">
         <v>-0.1350706586854249</v>
       </c>
+      <c r="D202">
+        <v>0.05763030216073117</v>
+      </c>
+      <c r="E202">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3406,6 +4622,12 @@
       <c r="C203">
         <v>-0.08280484692209145</v>
       </c>
+      <c r="D203">
+        <v>0.03533016270844736</v>
+      </c>
+      <c r="E203">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -3421,6 +4643,12 @@
       <c r="C204">
         <v>-0.02388535859836413</v>
       </c>
+      <c r="D204">
+        <v>0.01019111364850166</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3436,6 +4664,12 @@
       <c r="C205">
         <v>0.002816125111821617</v>
       </c>
+      <c r="D205">
+        <v>0.001201549934650725</v>
+      </c>
+      <c r="E205">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3451,6 +4685,12 @@
       <c r="C206">
         <v>0.162659715255422</v>
       </c>
+      <c r="D206">
+        <v>0.06940166451235348</v>
+      </c>
+      <c r="E206">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3466,6 +4706,12 @@
       <c r="C207">
         <v>-0.09868973389272126</v>
       </c>
+      <c r="D207">
+        <v>0.04210773264714524</v>
+      </c>
+      <c r="E207">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3481,6 +4727,12 @@
       <c r="C208">
         <v>0.216822563153011</v>
       </c>
+      <c r="D208">
+        <v>0.09251120821787034</v>
+      </c>
+      <c r="E208">
+        <v>9.300000000000001</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3496,6 +4748,12 @@
       <c r="C209">
         <v>0.02140127761010434</v>
       </c>
+      <c r="D209">
+        <v>0.009131236252933831</v>
+      </c>
+      <c r="E209">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -3511,6 +4769,12 @@
       <c r="C210">
         <v>0.05747630883831991</v>
       </c>
+      <c r="D210">
+        <v>0.02452329082921182</v>
+      </c>
+      <c r="E210">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -3526,6 +4790,12 @@
       <c r="C211">
         <v>0.01181741928852855</v>
       </c>
+      <c r="D211">
+        <v>0.005042112409802312</v>
+      </c>
+      <c r="E211">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -3541,6 +4811,12 @@
       <c r="C212">
         <v>0.0341163680323368</v>
       </c>
+      <c r="D212">
+        <v>0.01601612681633691</v>
+      </c>
+      <c r="E212">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -3556,6 +4832,12 @@
       <c r="C213">
         <v>0.08408527716681158</v>
       </c>
+      <c r="D213">
+        <v>0.03947432098323067</v>
+      </c>
+      <c r="E213">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3571,6 +4853,12 @@
       <c r="C214">
         <v>-0.1889734293343624</v>
       </c>
+      <c r="D214">
+        <v>0.08871467227310013</v>
+      </c>
+      <c r="E214">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3586,6 +4874,12 @@
       <c r="C215">
         <v>-0.01107094537094416</v>
       </c>
+      <c r="D215">
+        <v>0.005197319505690499</v>
+      </c>
+      <c r="E215">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3601,6 +4895,12 @@
       <c r="C216">
         <v>-0.08036168625691857</v>
       </c>
+      <c r="D216">
+        <v>0.03772625963717886</v>
+      </c>
+      <c r="E216">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3616,6 +4916,12 @@
       <c r="C217">
         <v>0.04138080583126496</v>
       </c>
+      <c r="D217">
+        <v>0.01942645926810158</v>
+      </c>
+      <c r="E217">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3631,6 +4937,12 @@
       <c r="C218">
         <v>0.0794930612544418</v>
       </c>
+      <c r="D218">
+        <v>0.03731847859254003</v>
+      </c>
+      <c r="E218">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3646,6 +4958,12 @@
       <c r="C219">
         <v>0.06029498633029945</v>
       </c>
+      <c r="D219">
+        <v>0.02830583098822408</v>
+      </c>
+      <c r="E219">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3661,6 +4979,12 @@
       <c r="C220">
         <v>0.09932353372803854</v>
       </c>
+      <c r="D220">
+        <v>0.04662800889377149</v>
+      </c>
+      <c r="E220">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3676,6 +5000,12 @@
       <c r="C221">
         <v>-0.0225193408802952</v>
       </c>
+      <c r="D221">
+        <v>0.01057183516771975</v>
+      </c>
+      <c r="E221">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3691,6 +5021,12 @@
       <c r="C222">
         <v>-0.7218358584195581</v>
       </c>
+      <c r="D222">
+        <v>0.3388700297191391</v>
+      </c>
+      <c r="E222">
+        <v>33.9</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3706,6 +5042,12 @@
       <c r="C223">
         <v>0.6355910003164194</v>
       </c>
+      <c r="D223">
+        <v>0.2983818809417664</v>
+      </c>
+      <c r="E223">
+        <v>29.8</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3721,6 +5063,12 @@
       <c r="C224">
         <v>-0.04289592467924794</v>
       </c>
+      <c r="D224">
+        <v>0.02013774059758299</v>
+      </c>
+      <c r="E224">
+        <v>2</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3736,6 +5084,12 @@
       <c r="C225">
         <v>-0.004743660222699913</v>
       </c>
+      <c r="D225">
+        <v>0.002226938800412832</v>
+      </c>
+      <c r="E225">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3750,6 +5104,12 @@
       </c>
       <c r="C226">
         <v>-0.02344011478133488</v>
+      </c>
+      <c r="D226">
+        <v>0.01100409781520458</v>
+      </c>
+      <c r="E226">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
